--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908B2C7-1301-4330-A475-DF9E1AB7A979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE1897-0FE1-45D7-922A-4C7FD67ACA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,8 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE1897-0FE1-45D7-922A-4C7FD67ACA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F2852B-170D-444A-96EB-B414D4EA9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -480,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -566,6 +569,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F2852B-170D-444A-96EB-B414D4EA9171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB00633-498B-4CFE-8A1A-D8D8ED6AF76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="5130" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,101 @@
   <si>
     <t>Device size(LxWxH/mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070100000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C389525</t>
+  </si>
+  <si>
+    <t>MHT170UBCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\07_Optoelectronic.SchLib</t>
+  </si>
+  <si>
+    <t>LED_0805_BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\007-LED.PcbLib</t>
+  </si>
+  <si>
+    <t>2.0mm*1.2mm*0.8mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEIHUA(美华)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\MHT170UBCT_MEIHUA_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>发光二极管(LED)-MHT170UBCT-蓝色-λp=468/λd=460~475/发光角度=140deg/Iv=112mcd~225mcd/Vf=2.7V~3.3V/If=25mA- MEIHUA(美华)-LED_0805_BLUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40℃~+85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-0805G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070100000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0805_GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KENTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\KT-0805G_KENTO_DS_20250402.pdf</t>
   </si>
 </sst>
 </file>
@@ -185,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +292,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -491,15 +592,15 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -566,6 +667,103 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB00633-498B-4CFE-8A1A-D8D8ED6AF76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE74F65-5130-4D9C-86D3-AB6F4DE284F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="5130" windowWidth="24670" windowHeight="14690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,34 @@
   </si>
   <si>
     <t>G:\Library\Datasheet\07_Optoelectronic\KT-0805G_KENTO_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管(LED)-KT-0805G-绿色-λd=520~523/发光角度=120deg/Iv=208mcd~249mcd/Vf=2.8V~2.9V/If=20mA- KENTO-LED_0805_GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070100000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070100000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL-PSC-2012U32YC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HONGLITRONIC(鸿利光电)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -598,8 +626,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -741,6 +768,9 @@
       <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
@@ -756,6 +786,15 @@
       <c r="K3" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="S3" s="4" t="s">
         <v>29</v>
       </c>
@@ -764,6 +803,30 @@
       </c>
       <c r="U3" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE74F65-5130-4D9C-86D3-AB6F4DE284F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34256AC-0D13-4EBE-AD7B-AE9C4E403DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发光二极管(LED)-KT-0805G-绿色-λd=520~523/发光角度=120deg/Iv=208mcd~249mcd/Vf=2.8V~2.9V/If=20mA- KENTO-LED_0805_GREEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.9V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,41 @@
   </si>
   <si>
     <t xml:space="preserve"> HONGLITRONIC(鸿利光电)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C497950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\HL-PSC-2012U32YC_ HONGLITRONIC_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>LED_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0805_YELLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管(LED)-KT-0805G-绿色-λd=520~523/发光角度=120deg/Iv=208mcd~249mcd/Vf=2.8V~2.9V/If=20mA-KENTO-LED_0805_GREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管(LED)-HL-PSC-2012U32YC-黄色-λd=586~596/发光角度=130deg/Iv=600mcd~780mcd/Vf=1.8V~2.4V/If=30mA- HONGLITRONIC(鸿利光电)-LED_0805_YELLOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +358,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -620,7 +657,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -647,7 +684,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -712,7 +749,7 @@
       <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -768,8 +805,8 @@
       <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>47</v>
+      <c r="F3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>41</v>
@@ -787,7 +824,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>34</v>
@@ -807,21 +844,66 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34256AC-0D13-4EBE-AD7B-AE9C4E403DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B8505-5EE8-4C53-BB14-8B61D48C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <t>G:\Library\Datasheet\07_Optoelectronic\KT-0805G_KENTO_DS_20250402.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.9V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +261,45 @@
   </si>
   <si>
     <t>发光二极管(LED)-HL-PSC-2012U32YC-黄色-λd=586~596/发光角度=130deg/Iv=600mcd~780mcd/Vf=1.8V~2.4V/If=30mA- HONGLITRONIC(鸿利光电)-LED_0805_YELLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C389523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHT170CRCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0805_RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\MHT170CRCT_MEIHUA_DS_20250402.pdf</t>
+  </si>
+  <si>
+    <t>发光二极管(LED)-MHT170CRCT-红色-λp=632/λd=617.5~633.5/发光角度=140deg/Iv=45mcd~180mcd/Vf=1.7V~2.1V/If=25mA- MEIHUA(美华)-LED_0805_RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60mW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -806,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>41</v>
@@ -824,7 +859,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>34</v>
@@ -844,46 +879,46 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>36</v>
@@ -892,23 +927,66 @@
         <v>29</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="5" t="s">
-        <v>46</v>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B8505-5EE8-4C53-BB14-8B61D48C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70871ECF-A305-439A-8BCA-FBC255276D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,127 @@
   </si>
   <si>
     <t>60mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070100000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C965848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL-2012RGBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> XINGLIGHT(成兴光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB-LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0805_RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\XL-2012RGBC_XINGLIGHT_DS_20250405.pdf</t>
+  </si>
+  <si>
+    <t>70mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管(LED)-XL-2012RGBC-RGB-发光角度=120deg/If=20mA-XINGLIGHT(成兴光)-LED_0805_RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070200000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT-0603W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0603_WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6mm*0.8mm*0.6mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\KT-0603W_KENTO_DS_20250405.pdf</t>
+  </si>
+  <si>
+    <t>发光二极管(LED)-KT-0603W-白色-发光角度=120deg/Iv=210mcd~520mcd/Vf=2.6V~3.1V/If=30mA-KENTO-LED_0603_WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100mW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-213/Y2C-CQ2R2L/3T(CY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C72038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF070200000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERLIGHT(亿光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_0603_YELLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\07_Optoelectronic\19-213-Y2C-CQ2R2L-3T_EVERLIGHT_DS_20250405.pdf</t>
+  </si>
+  <si>
+    <t>发光二极管(LED)-19-213/Y2C-CQ2R2L/3T(CY)-黄色-λp=591/λd=585.5~591.5/发光角度=120deg/If=20mA-EVERLIGHT(亿光)-LED_0603_YELLOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +452,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -374,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -989,6 +1121,168 @@
         <v>64</v>
       </c>
     </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/07_Optoelectronic.xlsx
+++ b/AD_Library/Excel/07_Optoelectronic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70871ECF-A305-439A-8BCA-FBC255276D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC243316-7C00-4BA5-B757-7F348AA2500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070100000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0805LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070100000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LED_Green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,14 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070100000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SF070100000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HL-PSC-2012U32YC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070100000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C965848</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070200000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0603LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF070200000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EVERLIGHT(亿光)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +394,27 @@
   <si>
     <t>发光二极管(LED)-19-213/Y2C-CQ2R2L/3T(CY)-黄色-λp=591/λd=585.5~591.5/发光角度=120deg/If=20mA-EVERLIGHT(亿光)-LED_0603_YELLOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF07010001</t>
+  </si>
+  <si>
+    <t>SF07010002</t>
+  </si>
+  <si>
+    <t>SF07010003</t>
+  </si>
+  <si>
+    <t>SF07010004</t>
+  </si>
+  <si>
+    <t>SF07010005</t>
+  </si>
+  <si>
+    <t>SF07020001</t>
+  </si>
+  <si>
+    <t>SF07020002</t>
   </si>
 </sst>
 </file>
@@ -816,26 +809,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -900,387 +893,387 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="O4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>37</v>
+      <c r="U5" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>44</v>
+      <c r="U7" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
